--- a/DOM_Banner/output/dept_banner/Saman Nematollahi_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Saman Nematollahi_2023.xlsx
@@ -1420,7 +1420,7 @@
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2326168956", "https://openalex.org/W47293337", "https://openalex.org/W2017936969", "https://openalex.org/W2041982748", "https://openalex.org/W585482801", "https://openalex.org/W1989356165", "https://openalex.org/W1993250385", "https://openalex.org/W4206474963", "https://openalex.org/W2066362300", "https://openalex.org/W2087168300")</t>
+          <t>c("https://openalex.org/W2326168956", "https://openalex.org/W47293337", "https://openalex.org/W2017936969", "https://openalex.org/W585482801", "https://openalex.org/W1989356165", "https://openalex.org/W2087168300", "https://openalex.org/W4206474963", "https://openalex.org/W2066362300", "https://openalex.org/W254561591", "https://openalex.org/W1996967898")</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Saman Nematollahi_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Saman Nematollahi_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Department of Medicine, Faculty of Medicine, Chulalongkorn University and King Chulalongkorn Memorial Hospital , Bangkok , Thailand; Department of Medicine, Faculty of Medicine, Chulalongkorn University and King Chulalongkorn Memorial Hospital , Bangkok , Thailand; Faculty of Medicine, Chiang Mai University , Chiang Mai , Thailand; Department of Microbiology, Faculty of Medicine, Chulalongkorn University , Bangkok , Thailand; Department of Preventive and Social Medicine, Faculty of Medicine Siriraj Hospital, Mahidol University , Bangkok , Thailand; Department of Microbiology, Faculty of Medicine, Chulalongkorn University , Bangkok , Thailand; Department of Medicine, Jackson Memorial Hospital/University of Miami , Miami, Florida , USA; Department of Medicine, Faculty of Medicine, Chulalongkorn University and King Chulalongkorn Memorial Hospital , Bangkok , Thailand; Faculty of Medicine, Chiang Mai University , Chiang Mai , Thailand; Faculty of Medicine, Srinakharinwirot University , Nakhon Nayok , Thailand; Critical Care Medicine Department, National Institutes of Health , Bethesda, Maryland , USA; Department of Medicine, Johns Hopkins University School of Medicine , Baltimore, Maryland , USA; Department of Medicine, Johns Hopkins University School of Medicine , Baltimore, Maryland , USA; Department of Medicine, Faculty of Medicine, Chulalongkorn University and King Chulalongkorn Memorial Hospital , Bangkok , Thailand; Department of Microbiology, Faculty of Medicine, Chulalongkorn University , Bangkok , Thailand; Faculty of Allied Health Sciences, Chulalongkorn University , Bangkok , Thailand; Department of Medicine, Faculty of Medicine, Chulalongkorn University and King Chulalongkorn Memorial Hospital , Bangkok , Thailand; Department of Medicine, Faculty of Medicine, Chulalongkorn University and King Chulalongkorn Memorial Hospital , Bangkok , Thailand; Department of Medicine, Johns Hopkins University School of Medicine , Baltimore, Maryland , USA; Department of Medicine, University of Arizona College of Medicine , Tucson, Arizona , USA; Department of Medicine, Johns Hopkins University School of Medicine , Baltimore, Maryland , USA; Department of Microbiology, Faculty of Medicine, Chulalongkorn University , Bangkok , Thailand</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4319460370</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Prevalence of Ocular Candidiasis and &lt;i&gt;Candida&lt;/i&gt; Endophthalmitis in Patients With Candidemia: A Systematic Review and Meta-Analysis</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-02-08</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Clinical Infectious Diseases</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Oxford University Press</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/cid/ciad064</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36750934</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/cid/ciad064</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,39 +539,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Department of Medicine, Johns Hopkins University School of Medicine, Baltimore, MD, USA; Faculty of Medicine, Chulalongkorn University, Bangkok, Thailand; Department of Biotechnology, Graduate School of Engineering, Osaka University, Osaka, Japan; Faculty of Medicine, Ramathibodi Hospital, Mahidol University, Bangkok, Thailand; Faculty of Medicine, Chiang Mai University, Chiang Mai, Thailand; Faculty of Medicine, Chiang Mai University, Chiang Mai, Thailand; Department of Medicine, Faculty of Medicine, Chulalongkorn University and King Chulalongkorn Memorial Hospital, Bangkok, Thailand; Department of Preventive and Social Medicine, Faculty of Medicine Siriraj Hospital, Mahidol University, Bangkok, Thailand; Department of Medicine, Faculty of Medicine, Chulalongkorn University and King Chulalongkorn Memorial Hospital, Bangkok, Thailand; Department of Medicine, Faculty of Medicine, Chulalongkorn University and King Chulalongkorn Memorial Hospital, Bangkok, Thailand; Department of Medicine, Faculty of Medicine, Chulalongkorn University and King Chulalongkorn Memorial Hospital, Bangkok, Thailand; Department of Medicine, Johns Hopkins University School of Medicine, Baltimore, MD, USA; Department of Medicine, Johns Hopkins University School of Medicine, Baltimore, MD, USA; Department of Medicine, University of Arizona College of Medicine, Tucson, AZ, USA; Department of Medicine, Johns Hopkins University School of Medicine, Baltimore, MD, USA; Department of Microbiology, Faculty of Medicine, Chulalongkorn University, Bangkok, Thailand</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4367056116</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Ribavirin treatment for respiratory syncytial virus infection in patients with haematologic malignancy and haematopoietic stem cell transplant recipients: a systematic review and meta-analysis</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-10-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Clinical Microbiology and Infection</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.cmi.2023.04.021</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -569,35 +579,40 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37116860</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.cmi.2023.04.021</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Cleveland Clinic Foundation, Cleveland, OH, USA; Cleveland Clinic Foundation, Cleveland, OH, USA; Cleveland Clinic Foundation, Cleveland, OH, USA; Cleveland Clinic Foundation, Cleveland, OH, USA; Cleveland Clinic Foundation, Cleveland, OH, USA; Cleveland Clinic Foundation, Cleveland, OH, USA; Cleveland Clinic Foundation, Cleveland, OH, USA; Cleveland Clinic Foundation, Cleveland, OH, USA; Cleveland Clinic Foundation, Cleveland, OH, USA; Cleveland Clinic Foundation, Cleveland, OH, USA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4323033942</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>OUTCOMES FROM THE FIRST YEAR OF THE CARDIONERDS ACADEMY: A DIGITAL MEDIA AND MEDICAL EDUCATION FELLOWSHIP</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-03-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Journal of the American College of Cardiology</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0735-1097(23)02576-7</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0735-1097(23)02576-7</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,39 +713,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Facultad de Ciencias de La Salud, Carrera de Medicina Humana, Universidad Científica del Sur, Lima, Peru; Sinai Hospital of Baltimore, Baltimore, USA; Federal University of Uberlândia, Uberlândia, Brazil; Charité Universitätsmedizin, Berlin, Germany; School of Medicine, Universidad Francisco Marroquín, Guatemala City, Guatemala; Department of Medicine, University of Arizona College of Medicine, Tucson, USA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4361018489</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Geographic Diversity in Clinical Problem-Solving Exercises</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-03-27</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Journal of General Internal Medicine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Springer Science+Business Media</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s11606-023-08180-w</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -733,35 +753,40 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36973574</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s11606-023-08180-w</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,39 +800,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Universidad Francisco Marroquin School of Medicine; Universidad Peruana Cayetano Heredia, School of Medicine; University of Pittsburgh Medical Center; University of California San Francisco; University of Arizona College of Medicine; University of California San Francisco</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4367303146</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Global Impact of a Virtual Neurology Morning Report (S10.002)</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-04-25</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Neurology</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1212/wnl.0000000000204212</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -815,35 +840,40 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1212/wnl.0000000000204212</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,39 +887,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Department of Medicine, University of California, San Francisco, California, USA; Department of Community Medicine, Universidad Francisco Marroquin School of Medicine, Ciudad de Guatemala, Guatemala; Department of Medicine, Universidade Estadual de Maringá, Maringá, Brasil; Department of Medicine, University of California, San Francisco, California, USA; Department of Medicine, University of Arizona College of Medicine, Tucson, Arizona, USA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4381470272</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Around the World in 60 Minutes: How a Virtual Morning Report has Created an International Community for Clinical Reasoning and Medical Education</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-06-21</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Teaching and Learning in Medicine</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Taylor &amp; Francis</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1080/10401334.2023.2226661</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -897,35 +927,40 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37341557</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1080/10401334.2023.2226661</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,75 +974,80 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Chiang Mai University, Chiang Mai, Thailand.; Chiang Mai University, Chiang Mai, Thailand.; Johns Hopkins University School of Medicine, Baltimore, Maryland, United States.; Chulalongkorn University, Bangkok, Thailand.; Faculty of Medicine, Chulalongkorn University, Bangkok, Thailand.; University of Miami/Jackson Memorial Hospital, Miami, Florida, United States.; 6Department of Preventive and Social Medicine, Faculty of Medicine Siriraj Hospital, Mahidol University, Bangkok, Thailand; Department of Medicine, Faculty of Medicine, Chulalongkorn University and King Chulalongkorn Memorial Hospital, Thai Red Cross Society, Bangkok, Thailand.; Department of Medicine, Faculty of Medicine, Chulalongkorn University and King Chulalongkorn Memorial Hospital, Thai Red Cross Society, Bangkok, Thailand.; Srinakharinwirot University, Nonthaburi, Thailand.; Faculty of Medicine, Chulalongkorn University, Bangkok, Thailand.; Chulalongkorn University, Bangkok, Maryland, Thailand.; 7Department of Medicine, Faculty of Medicine, Chulalongkorn University and King Chulalongkorn Memorial Hospital, Bangkok, Thailand; Chulalongkorn University, Bangkok, Thailand.; Chulalongkorn University and King Chulalongkorn Memorial Hospital, Bangkok, Thailand.; Center of Excellence in Immunology and Immune Mediated Diseases, Department of Microbiology, Faculty of Medicine, Chulalongkorn University, Bangkok, Thailand.; University of Arizona College of Medicine, Tucson, Arizona, United States.; Department of Microbiology, Faculty of Medicine, Chulalongkorn University, Thailand.; 7Department of Medicine, Faculty of Medicine, Chulalongkorn University and King Chulalongkorn Memorial Hospital, Bangkok, Thailand; Johns Hopkins University School of Medicine, BALTIMORE, Maryland, United States.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4382631912</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Attenuated immunogenicity of SARS-CoV-2 vaccines and risk factors in stem cell transplant recipients: a meta-analysis</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Blood Advances</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1182/bloodadvances.2023010349</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I8" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37389818</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1182/bloodadvances.2023010349</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,39 +1061,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Division of Infectious Diseases and Division of Transplant Surgery, Virginia Commonwealth University, Richmond, Virginia; Immunocompromised Host Infectious Diseases, Cincinnati Children's Hospital Medical Center, University of Cincinnati, Cincinnati, Ohio; Division of Infectious Diseases, University of Arizona College of Medicine, Tucson, Arizona, USA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4387043924</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>A review of transplant infectious diseases and pediatric transplant infectious diseases curriculum</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2023-09-21</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Current Opinion in Organ Transplantation</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/mot.0000000000001105</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I9" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1061,35 +1101,40 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37751314</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/mot.0000000000001105</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1098,80 +1143,85 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Saman Nematollahi, Sean Tackett, Suzanne M. Grieb, Justin Laracy, Anne E. Belcher, Kieren A. Marr, Shmuel Shoham, Robin K. Avery, Michael T. Melia</t>
+          <t>M. Q. Lacy, Е. В. Филиппов, Saman Nematollahi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388893398</t>
+          <t>Department of Medicine, University of Arizona College of Medicine, Tucson, Arizona; Department of Medicine, Sinai Hospital of Baltimore, Baltimore, Maryland, USA; Department of Medicine, University of Arizona College of Medicine, Tucson, Arizona</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Teaching Everyone Everywhere All at Once: Leveraging Social Media to Implement a Multisite Fungal Diagnostics Curriculum</t>
+          <t>https://openalex.org/W4388904226</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2023-11-22</t>
+          <t>Controlling infections in hospitalized pretransplant candidates</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Open Forum Infectious Diseases</t>
+          <t>2023-11-14</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Oxford University Press</t>
+          <t>Current Opinion in Organ Transplantation</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/ofid/ofad594</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1097/mot.0000000000001120</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/38088978</t>
-        </is>
-      </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/ofid/ofad594</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37991047</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1097/mot.0000000000001120</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1180,80 +1230,85 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>M. Q. Lacy, Е. В. Филиппов, Saman Nematollahi</t>
+          <t>Saman Nematollahi, Sean Tackett, Suzanne M. Grieb, Justin Laracy, Anne E. Belcher, Kieren A. Marr, Shmuel Shoham, Robin K. Avery, Michael T. Melia</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388904226</t>
+          <t>Department of Medicine, University of Arizona College of Medicine , Tucson, AZ , USA; Biostatistics, Epidemiology, and Data Management Core, Johns Hopkins School of Medicine , Baltimore, Maryland , USA; Johns Hopkins Bayview Medical Center, Johns Hopkins University School of Medicine , Baltimore, Maryland , USA; Biostatistics, Epidemiology, and Data Management Core, Johns Hopkins School of Medicine , Baltimore, Maryland , USA; Department of Pediatrics, Center for Child and Community Health Research, Johns Hopkins School of Medicine , Baltimore, Maryland , USA; Department of Medicine, Memorial Sloan Kettering Cancer Center , New York, NY , USA; Department of Medicine, Weill Cornell Medical College , New York, NY , USA; Johns Hopkins University School of Education; Department of Medicine, Johns Hopkins University School of Medicine , Baltimore, Maryland , USA; Pearl Diagnostics , Baltimore, Maryland , USA; Department of Medicine, Johns Hopkins University School of Medicine , Baltimore, Maryland , USA; Department of Medicine, Johns Hopkins University School of Medicine , Baltimore, Maryland , USA; Department of Medicine, Johns Hopkins University School of Medicine , Baltimore, Maryland , USA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Controlling infections in hospitalized pretransplant candidates</t>
+          <t>https://openalex.org/W4388893398</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2023-11-14</t>
+          <t>Teaching Everyone Everywhere All at Once: Leveraging Social Media to Implement a Multisite Fungal Diagnostics Curriculum</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Current Opinion in Organ Transplantation</t>
+          <t>2023-11-22</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>Open Forum Infectious Diseases</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/mot.0000000000001120</t>
+          <t>Oxford University Press</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1093/ofid/ofad594</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37991047</t>
-        </is>
-      </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/mot.0000000000001120</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/38088978</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1093/ofid/ofad594</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
